--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KAL001-アラームリスト(個人別).xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/KAL001-アラームリスト(個人別).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CDEE08-EA09-4486-948A-88B8ACBFEC12}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="1125" yWindow="0" windowWidth="20490" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="帳票テンプレート" sheetId="2" r:id="rId1"/>
@@ -39,8 +40,8 @@
     <definedName name="_面接から採用に至るまでの情報管理とする_____アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う_">#REF!</definedName>
     <definedName name="・面接から採用に至るまでの情報管理とする。___・アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う。" localSheetId="0">#REF!</definedName>
     <definedName name="・面接から採用に至るまでの情報管理とする。___・アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う。">#REF!</definedName>
-    <definedName name="a" localSheetId="0">[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
-    <definedName name="a">[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="a" localSheetId="0">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="a">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="AAA" localSheetId="0">#REF!</definedName>
     <definedName name="AAA">#REF!</definedName>
     <definedName name="aaaa" localSheetId="0">#REF!</definedName>
@@ -89,8 +90,8 @@
     <definedName name="ＭＨ">#REF!</definedName>
     <definedName name="Ｍホ" localSheetId="0">#REF!</definedName>
     <definedName name="Ｍホ">#REF!</definedName>
-    <definedName name="ｎ" localSheetId="0">[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
-    <definedName name="ｎ">[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="ｎ" localSheetId="0">'[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="ｎ">'[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="ＯＨ" localSheetId="0">#REF!</definedName>
     <definedName name="ＯＨ">#REF!</definedName>
     <definedName name="OPT_NO" localSheetId="0">[5]!OPT_NO</definedName>
@@ -103,7 +104,8 @@
     <definedName name="PG単価">[6]明細合計!#REF!</definedName>
     <definedName name="PG田中" localSheetId="0">#REF!</definedName>
     <definedName name="PG田中">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">帳票テンプレート!$B$1:$H$3</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">帳票テンプレート!$A$2:$H$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">帳票テンプレート!$2:$2</definedName>
     <definedName name="PrintDaicho" localSheetId="0">[7]!PrintDaicho</definedName>
     <definedName name="PrintDaicho">[7]!PrintDaicho</definedName>
     <definedName name="QuitDaicho" localSheetId="0">[7]!QuitDaicho</definedName>
@@ -145,10 +147,10 @@
     <definedName name="クニホ">#REF!</definedName>
     <definedName name="クホ" localSheetId="0">#REF!</definedName>
     <definedName name="クホ">#REF!</definedName>
-    <definedName name="サＨ" localSheetId="0">[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
-    <definedName name="サＨ">[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
-    <definedName name="サホ" localSheetId="0">[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
-    <definedName name="サホ">[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ!#REF!</definedName>
+    <definedName name="サＨ" localSheetId="0">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="サＨ">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="サホ" localSheetId="0">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="サホ">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="サホ1" localSheetId="0">#REF!</definedName>
     <definedName name="サホ1">#REF!</definedName>
     <definedName name="ツール別見積工数" localSheetId="0">#REF!</definedName>
@@ -228,7 +230,7 @@
     <definedName name="飛行機" localSheetId="0">#REF!</definedName>
     <definedName name="飛行機">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="122211" calcOnSave="0"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
@@ -288,6 +290,13 @@
   </si>
   <si>
     <t>職場名</t>
+    <rPh sb="0" eb="2">
+      <t>ショクバ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>&amp;=item.workplaceName</t>
@@ -302,7 +311,7 @@
     <t>&amp;=item.alarmValueDate</t>
   </si>
   <si>
-    <t>&amp;=item.comment</t>
+    <t>&amp;=item.categoryName</t>
   </si>
   <si>
     <t>&amp;=item.alarmItem</t>
@@ -311,13 +320,13 @@
     <t>&amp;=item.alarmValueMessage</t>
   </si>
   <si>
-    <t>&amp;=item.categoryName</t>
+    <t>&amp;=item.comment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -389,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -401,7 +410,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -427,9 +435,11 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ"/>
+      <sheetName val="master"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -43736,7 +43746,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -43769,9 +43779,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -43804,6 +43831,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -43979,10 +44023,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
@@ -43995,10 +44041,6 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-    </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>7</v>
@@ -44029,7 +44071,7 @@
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -44039,7 +44081,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>13</v>
@@ -44048,13 +44090,16 @@
         <v>14</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1"/>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1"/>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1"/>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
